--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/8/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/8/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5905905905905906</v>
+        <v>0.1375137513751375</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>492.4924924924925</v>
+        <v>1985.748574857486</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.098998998998999</v>
+        <v>0.09547954795479548</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8958958958958959</v>
+        <v>0.0047004700470047</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1541.541541541542</v>
+        <v>784.6384638463846</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>617.6176176176177</v>
+        <v>865.7965796579658</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419.4194194194195</v>
+        <v>489.7596759675967</v>
       </c>
     </row>
   </sheetData>
